--- a/Team-Data/2008-09/4-4-2008-09.xlsx
+++ b/Team-Data/2008-09/4-4-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" t="n">
         <v>43</v>
       </c>
       <c r="F2" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
@@ -684,10 +751,10 @@
         <v>36.1</v>
       </c>
       <c r="J2" t="n">
-        <v>78.90000000000001</v>
+        <v>79</v>
       </c>
       <c r="K2" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L2" t="n">
         <v>7.3</v>
@@ -696,7 +763,7 @@
         <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>0.363</v>
+        <v>0.366</v>
       </c>
       <c r="O2" t="n">
         <v>18.3</v>
@@ -708,16 +775,16 @@
         <v>0.736</v>
       </c>
       <c r="R2" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S2" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T2" t="n">
         <v>40.2</v>
       </c>
       <c r="U2" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V2" t="n">
         <v>12.8</v>
@@ -738,13 +805,13 @@
         <v>20.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.7</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -765,7 +832,7 @@
         <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
         <v>8</v>
@@ -774,19 +841,19 @@
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO2" t="n">
         <v>22</v>
       </c>
       <c r="AP2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
       </c>
       <c r="AR2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS2" t="n">
         <v>21</v>
@@ -798,7 +865,7 @@
         <v>22</v>
       </c>
       <c r="AV2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-4-2008-09</t>
+          <t>2009-04-04</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F3" t="n">
         <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>0.75</v>
+        <v>0.753</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J3" t="n">
         <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>0.487</v>
+        <v>0.486</v>
       </c>
       <c r="L3" t="n">
         <v>6.5</v>
@@ -878,16 +945,16 @@
         <v>16.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.394</v>
+        <v>0.392</v>
       </c>
       <c r="O3" t="n">
         <v>19.6</v>
       </c>
       <c r="P3" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="R3" t="n">
         <v>10.6</v>
@@ -899,7 +966,7 @@
         <v>42.4</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V3" t="n">
         <v>15.8</v>
@@ -908,25 +975,25 @@
         <v>7.6</v>
       </c>
       <c r="X3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="AC3" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -938,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -962,10 +1029,10 @@
         <v>11</v>
       </c>
       <c r="AP3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AR3" t="n">
         <v>21</v>
@@ -998,7 +1065,7 @@
         <v>7</v>
       </c>
       <c r="BB3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC3" t="n">
         <v>2</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-4-2008-09</t>
+          <t>2009-04-04</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL4" t="n">
         <v>22</v>
@@ -1141,7 +1208,7 @@
         <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP4" t="n">
         <v>20</v>
@@ -1150,7 +1217,7 @@
         <v>27</v>
       </c>
       <c r="AR4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS4" t="n">
         <v>23</v>
@@ -1180,7 +1247,7 @@
         <v>13</v>
       </c>
       <c r="BB4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC4" t="n">
         <v>17</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-4-2008-09</t>
+          <t>2009-04-04</t>
         </is>
       </c>
     </row>
@@ -1230,13 +1297,13 @@
         <v>38.1</v>
       </c>
       <c r="J5" t="n">
-        <v>83.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M5" t="n">
         <v>15.6</v>
@@ -1248,22 +1315,22 @@
         <v>19.8</v>
       </c>
       <c r="P5" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.794</v>
+        <v>0.792</v>
       </c>
       <c r="R5" t="n">
         <v>11.9</v>
       </c>
       <c r="S5" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
         <v>42.3</v>
       </c>
       <c r="U5" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V5" t="n">
         <v>14.8</v>
@@ -1281,25 +1348,25 @@
         <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="AC5" t="n">
         <v>-0.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
         <v>16</v>
       </c>
       <c r="AF5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
         <v>1</v>
@@ -1311,7 +1378,7 @@
         <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
         <v>23</v>
@@ -1326,7 +1393,7 @@
         <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ5" t="n">
         <v>7</v>
@@ -1341,7 +1408,7 @@
         <v>8</v>
       </c>
       <c r="AU5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV5" t="n">
         <v>20</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-4-2008-09</t>
+          <t>2009-04-04</t>
         </is>
       </c>
     </row>
@@ -1394,49 +1461,49 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" t="n">
         <v>61</v>
       </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.803</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J6" t="n">
-        <v>78.7</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.467</v>
+        <v>0.466</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.39</v>
+        <v>0.389</v>
       </c>
       <c r="O6" t="n">
         <v>18.6</v>
       </c>
       <c r="P6" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R6" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S6" t="n">
         <v>31.4</v>
@@ -1448,31 +1515,31 @@
         <v>20.2</v>
       </c>
       <c r="V6" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="W6" t="n">
         <v>7.3</v>
       </c>
       <c r="X6" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1487,7 +1554,7 @@
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ6" t="n">
         <v>25</v>
@@ -1505,13 +1572,13 @@
         <v>2</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP6" t="n">
         <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR6" t="n">
         <v>20</v>
@@ -1526,13 +1593,13 @@
         <v>23</v>
       </c>
       <c r="AV6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW6" t="n">
         <v>15</v>
       </c>
       <c r="AX6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY6" t="n">
         <v>4</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-4-2008-09</t>
+          <t>2009-04-04</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
@@ -1666,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI7" t="n">
         <v>8</v>
@@ -1675,10 +1742,10 @@
         <v>6</v>
       </c>
       <c r="AK7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM7" t="n">
         <v>9</v>
@@ -1717,7 +1784,7 @@
         <v>8</v>
       </c>
       <c r="AY7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ7" t="n">
         <v>3</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-4-2008-09</t>
+          <t>2009-04-04</t>
         </is>
       </c>
     </row>
@@ -1758,22 +1825,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
         <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>0.662</v>
+        <v>0.658</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
       </c>
       <c r="I8" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J8" t="n">
         <v>79.3</v>
@@ -1788,7 +1855,7 @@
         <v>17.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.371</v>
+        <v>0.369</v>
       </c>
       <c r="O8" t="n">
         <v>23</v>
@@ -1809,34 +1876,34 @@
         <v>41.5</v>
       </c>
       <c r="U8" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="V8" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W8" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="X8" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y8" t="n">
         <v>5.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.2</v>
+        <v>104</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1860,13 +1927,13 @@
         <v>5</v>
       </c>
       <c r="AL8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM8" t="n">
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -1875,10 +1942,10 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS8" t="n">
         <v>14</v>
@@ -1908,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="BB8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC8" t="n">
         <v>8</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-4-2008-09</t>
+          <t>2009-04-04</t>
         </is>
       </c>
     </row>
@@ -1940,34 +2007,34 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" t="n">
         <v>36</v>
       </c>
       <c r="F9" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" t="n">
-        <v>0.474</v>
+        <v>0.48</v>
       </c>
       <c r="H9" t="n">
         <v>48.5</v>
       </c>
       <c r="I9" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J9" t="n">
         <v>79.90000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L9" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="M9" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="N9" t="n">
         <v>0.351</v>
@@ -1976,16 +2043,16 @@
         <v>16.8</v>
       </c>
       <c r="P9" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R9" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S9" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T9" t="n">
         <v>41.2</v>
@@ -1997,13 +2064,13 @@
         <v>12</v>
       </c>
       <c r="W9" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X9" t="n">
         <v>4.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z9" t="n">
         <v>21</v>
@@ -2012,13 +2079,13 @@
         <v>19.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AE9" t="n">
         <v>16</v>
@@ -2030,22 +2097,22 @@
         <v>16</v>
       </c>
       <c r="AH9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI9" t="n">
         <v>22</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
         <v>28</v>
       </c>
       <c r="AM9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN9" t="n">
         <v>25</v>
@@ -2063,7 +2130,7 @@
         <v>10</v>
       </c>
       <c r="AS9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AT9" t="n">
         <v>17</v>
@@ -2090,7 +2157,7 @@
         <v>29</v>
       </c>
       <c r="BB9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC9" t="n">
         <v>18</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-4-2008-09</t>
+          <t>2009-04-04</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2212,7 +2279,7 @@
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
@@ -2251,7 +2318,7 @@
         <v>11</v>
       </c>
       <c r="AU10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-4-2008-09</t>
+          <t>2009-04-04</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>3.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
@@ -2394,7 +2461,7 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
         <v>26</v>
@@ -2415,7 +2482,7 @@
         <v>10</v>
       </c>
       <c r="AO11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP11" t="n">
         <v>22</v>
@@ -2433,7 +2500,7 @@
         <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV11" t="n">
         <v>17</v>
@@ -2445,7 +2512,7 @@
         <v>23</v>
       </c>
       <c r="AY11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ11" t="n">
         <v>2</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-4-2008-09</t>
+          <t>2009-04-04</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
         <v>19</v>
@@ -2576,7 +2643,7 @@
         <v>19</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="n">
         <v>4</v>
@@ -2627,7 +2694,7 @@
         <v>10</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>28</v>
@@ -2636,7 +2703,7 @@
         <v>15</v>
       </c>
       <c r="BB12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC12" t="n">
         <v>20</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-4-2008-09</t>
+          <t>2009-04-04</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" t="n">
         <v>18</v>
       </c>
       <c r="F13" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13" t="n">
-        <v>0.237</v>
+        <v>0.24</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J13" t="n">
         <v>81.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L13" t="n">
         <v>6.6</v>
@@ -2698,7 +2765,7 @@
         <v>18.3</v>
       </c>
       <c r="N13" t="n">
-        <v>0.362</v>
+        <v>0.361</v>
       </c>
       <c r="O13" t="n">
         <v>16.9</v>
@@ -2710,7 +2777,7 @@
         <v>0.74</v>
       </c>
       <c r="R13" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S13" t="n">
         <v>28.9</v>
@@ -2740,13 +2807,13 @@
         <v>19.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2758,19 +2825,19 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM13" t="n">
         <v>16</v>
@@ -2791,7 +2858,7 @@
         <v>16</v>
       </c>
       <c r="AS13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT13" t="n">
         <v>25</v>
@@ -2809,7 +2876,7 @@
         <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ13" t="n">
         <v>7</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-4-2008-09</t>
+          <t>2009-04-04</t>
         </is>
       </c>
     </row>
@@ -2850,52 +2917,52 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E14" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F14" t="n">
         <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>0.787</v>
+        <v>0.789</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="J14" t="n">
-        <v>85.2</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K14" t="n">
         <v>0.474</v>
       </c>
       <c r="L14" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.362</v>
+        <v>0.365</v>
       </c>
       <c r="O14" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="P14" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="R14" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S14" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T14" t="n">
         <v>44</v>
@@ -2916,19 +2983,19 @@
         <v>4.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.1</v>
+        <v>106.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2964,10 +3031,10 @@
         <v>12</v>
       </c>
       <c r="AP14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
@@ -3003,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-4-2008-09</t>
+          <t>2009-04-04</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" t="n">
         <v>54</v>
       </c>
       <c r="G15" t="n">
-        <v>0.289</v>
+        <v>0.28</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
@@ -3050,49 +3117,49 @@
         <v>34.9</v>
       </c>
       <c r="J15" t="n">
-        <v>77.2</v>
+        <v>77.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="M15" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.357</v>
+        <v>0.352</v>
       </c>
       <c r="O15" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="P15" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R15" t="n">
         <v>10.5</v>
       </c>
       <c r="S15" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="T15" t="n">
         <v>38.9</v>
       </c>
       <c r="U15" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="V15" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X15" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y15" t="n">
         <v>5.5</v>
@@ -3104,25 +3171,25 @@
         <v>21.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.8</v>
+        <v>-5.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AE15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF15" t="n">
         <v>25</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI15" t="n">
         <v>30</v>
@@ -3131,7 +3198,7 @@
         <v>28</v>
       </c>
       <c r="AK15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="n">
         <v>27</v>
@@ -3140,16 +3207,16 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO15" t="n">
         <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR15" t="n">
         <v>22</v>
@@ -3167,13 +3234,13 @@
         <v>24</v>
       </c>
       <c r="AW15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX15" t="n">
         <v>21</v>
       </c>
       <c r="AY15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ15" t="n">
         <v>21</v>
@@ -3182,7 +3249,7 @@
         <v>9</v>
       </c>
       <c r="BB15" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BC15" t="n">
         <v>26</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-4-2008-09</t>
+          <t>2009-04-04</t>
         </is>
       </c>
     </row>
@@ -3214,37 +3281,37 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" t="n">
         <v>36</v>
       </c>
       <c r="G16" t="n">
-        <v>0.532</v>
+        <v>0.526</v>
       </c>
       <c r="H16" t="n">
         <v>48.6</v>
       </c>
       <c r="I16" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J16" t="n">
         <v>81.09999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L16" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M16" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.355</v>
+        <v>0.353</v>
       </c>
       <c r="O16" t="n">
         <v>17.4</v>
@@ -3253,10 +3320,10 @@
         <v>23</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.757</v>
+        <v>0.759</v>
       </c>
       <c r="R16" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S16" t="n">
         <v>29.1</v>
@@ -3265,13 +3332,13 @@
         <v>39.1</v>
       </c>
       <c r="U16" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V16" t="n">
         <v>12.4</v>
       </c>
       <c r="W16" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X16" t="n">
         <v>5.5</v>
@@ -3280,19 +3347,19 @@
         <v>4.1</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA16" t="n">
         <v>20</v>
       </c>
       <c r="AB16" t="n">
-        <v>98.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3313,16 +3380,16 @@
         <v>14</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM16" t="n">
         <v>10</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
         <v>26</v>
@@ -3331,10 +3398,10 @@
         <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS16" t="n">
         <v>22</v>
@@ -3343,7 +3410,7 @@
         <v>28</v>
       </c>
       <c r="AU16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV16" t="n">
         <v>3</v>
@@ -3355,16 +3422,16 @@
         <v>5</v>
       </c>
       <c r="AY16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ16" t="n">
         <v>16</v>
       </c>
       <c r="BA16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-4-2008-09</t>
+          <t>2009-04-04</t>
         </is>
       </c>
     </row>
@@ -3423,25 +3490,25 @@
         <v>6.1</v>
       </c>
       <c r="M17" t="n">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.362</v>
+        <v>0.361</v>
       </c>
       <c r="O17" t="n">
         <v>19.8</v>
       </c>
       <c r="P17" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q17" t="n">
         <v>0.781</v>
       </c>
       <c r="R17" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S17" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T17" t="n">
         <v>40.8</v>
@@ -3450,10 +3517,10 @@
         <v>21.6</v>
       </c>
       <c r="V17" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X17" t="n">
         <v>3.7</v>
@@ -3462,25 +3529,25 @@
         <v>4.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AA17" t="n">
         <v>22.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.2</v>
+        <v>-1.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
         <v>20</v>
@@ -3510,7 +3577,7 @@
         <v>9</v>
       </c>
       <c r="AP17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ17" t="n">
         <v>11</v>
@@ -3519,7 +3586,7 @@
         <v>5</v>
       </c>
       <c r="AS17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT17" t="n">
         <v>20</v>
@@ -3528,7 +3595,7 @@
         <v>8</v>
       </c>
       <c r="AV17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW17" t="n">
         <v>11</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-4-2008-09</t>
+          <t>2009-04-04</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-4.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3668,7 +3735,7 @@
         <v>25</v>
       </c>
       <c r="AH18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI18" t="n">
         <v>20</v>
@@ -3680,16 +3747,16 @@
         <v>30</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM18" t="n">
         <v>14</v>
       </c>
       <c r="AN18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP18" t="n">
         <v>18</v>
@@ -3698,22 +3765,22 @@
         <v>15</v>
       </c>
       <c r="AR18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT18" t="n">
         <v>15</v>
       </c>
       <c r="AU18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV18" t="n">
         <v>16</v>
       </c>
       <c r="AW18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX18" t="n">
         <v>28</v>
@@ -3728,7 +3795,7 @@
         <v>23</v>
       </c>
       <c r="BB18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-4-2008-09</t>
+          <t>2009-04-04</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" t="n">
         <v>31</v>
       </c>
       <c r="F19" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" t="n">
-        <v>0.408</v>
+        <v>0.413</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
@@ -3781,22 +3848,22 @@
         <v>79.8</v>
       </c>
       <c r="K19" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L19" t="n">
         <v>7.9</v>
       </c>
       <c r="M19" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="N19" t="n">
-        <v>0.372</v>
+        <v>0.375</v>
       </c>
       <c r="O19" t="n">
         <v>19</v>
       </c>
       <c r="P19" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="Q19" t="n">
         <v>0.778</v>
@@ -3805,10 +3872,10 @@
         <v>10.3</v>
       </c>
       <c r="S19" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T19" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="U19" t="n">
         <v>19.9</v>
@@ -3826,7 +3893,7 @@
         <v>4.7</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AA19" t="n">
         <v>20.7</v>
@@ -3835,22 +3902,22 @@
         <v>98.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.7</v>
+        <v>-2.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AE19" t="n">
         <v>21</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG19" t="n">
         <v>21</v>
       </c>
       <c r="AH19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
         <v>27</v>
@@ -3859,7 +3926,7 @@
         <v>19</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>5</v>
@@ -3886,7 +3953,7 @@
         <v>20</v>
       </c>
       <c r="AT19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU19" t="n">
         <v>26</v>
@@ -3901,19 +3968,19 @@
         <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ19" t="n">
         <v>25</v>
       </c>
       <c r="BA19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-4-2008-09</t>
+          <t>2009-04-04</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>2.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE20" t="n">
         <v>9</v>
@@ -4041,22 +4108,22 @@
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM20" t="n">
         <v>13</v>
       </c>
       <c r="AN20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ20" t="n">
         <v>3</v>
@@ -4074,22 +4141,22 @@
         <v>28</v>
       </c>
       <c r="AV20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW20" t="n">
         <v>14</v>
       </c>
       <c r="AX20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY20" t="n">
         <v>1</v>
       </c>
       <c r="AZ20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-4-2008-09</t>
+          <t>2009-04-04</t>
         </is>
       </c>
     </row>
@@ -4124,25 +4191,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" t="n">
         <v>29</v>
       </c>
       <c r="F21" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" t="n">
-        <v>0.382</v>
+        <v>0.387</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J21" t="n">
-        <v>86.40000000000001</v>
+        <v>86.5</v>
       </c>
       <c r="K21" t="n">
         <v>0.445</v>
@@ -4151,10 +4218,10 @@
         <v>10.1</v>
       </c>
       <c r="M21" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
       <c r="O21" t="n">
         <v>18.5</v>
@@ -4187,7 +4254,7 @@
         <v>2.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z21" t="n">
         <v>20.6</v>
@@ -4196,16 +4263,16 @@
         <v>19.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>105.4</v>
+        <v>105.6</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.8</v>
+        <v>-2.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AE21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF21" t="n">
         <v>23</v>
@@ -4214,7 +4281,7 @@
         <v>23</v>
       </c>
       <c r="AH21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4235,16 +4302,16 @@
         <v>21</v>
       </c>
       <c r="AO21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ21" t="n">
         <v>10</v>
       </c>
       <c r="AR21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS21" t="n">
         <v>9</v>
@@ -4259,7 +4326,7 @@
         <v>19</v>
       </c>
       <c r="AW21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,7 +4335,7 @@
         <v>22</v>
       </c>
       <c r="AZ21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA21" t="n">
         <v>28</v>
@@ -4277,7 +4344,7 @@
         <v>4</v>
       </c>
       <c r="BC21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-4-2008-09</t>
+          <t>2009-04-04</t>
         </is>
       </c>
     </row>
@@ -4384,25 +4451,25 @@
         <v>-6.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF22" t="n">
         <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
         <v>21</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK22" t="n">
         <v>26</v>
@@ -4420,7 +4487,7 @@
         <v>7</v>
       </c>
       <c r="AP22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ22" t="n">
         <v>9</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-4-2008-09</t>
+          <t>2009-04-04</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F23" t="n">
         <v>19</v>
       </c>
       <c r="G23" t="n">
-        <v>0.75</v>
+        <v>0.747</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
@@ -4509,16 +4576,16 @@
         <v>78.09999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L23" t="n">
         <v>10.2</v>
       </c>
       <c r="M23" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.386</v>
+        <v>0.388</v>
       </c>
       <c r="O23" t="n">
         <v>19.9</v>
@@ -4536,7 +4603,7 @@
         <v>33.4</v>
       </c>
       <c r="T23" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U23" t="n">
         <v>19.6</v>
@@ -4554,28 +4621,28 @@
         <v>3.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="AC23" t="n">
         <v>7.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>3</v>
       </c>
       <c r="AG23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH23" t="n">
         <v>26</v>
@@ -4587,7 +4654,7 @@
         <v>26</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4620,19 +4687,19 @@
         <v>29</v>
       </c>
       <c r="AV23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW23" t="n">
         <v>21</v>
       </c>
       <c r="AX23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY23" t="n">
         <v>2</v>
       </c>
       <c r="AZ23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA23" t="n">
         <v>6</v>
@@ -4641,7 +4708,7 @@
         <v>8</v>
       </c>
       <c r="BC23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-4-2008-09</t>
+          <t>2009-04-04</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" t="n">
         <v>35</v>
       </c>
       <c r="G24" t="n">
-        <v>0.533</v>
+        <v>0.527</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
@@ -4697,10 +4764,10 @@
         <v>4.1</v>
       </c>
       <c r="M24" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.318</v>
+        <v>0.317</v>
       </c>
       <c r="O24" t="n">
         <v>20</v>
@@ -4709,7 +4776,7 @@
         <v>26.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.749</v>
+        <v>0.748</v>
       </c>
       <c r="R24" t="n">
         <v>12.6</v>
@@ -4748,7 +4815,7 @@
         <v>0.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4763,10 +4830,10 @@
         <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK24" t="n">
         <v>12</v>
@@ -4775,7 +4842,7 @@
         <v>29</v>
       </c>
       <c r="AM24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN24" t="n">
         <v>30</v>
@@ -4811,7 +4878,7 @@
         <v>12</v>
       </c>
       <c r="AY24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ24" t="n">
         <v>8</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-4-2008-09</t>
+          <t>2009-04-04</t>
         </is>
       </c>
     </row>
@@ -4930,19 +4997,19 @@
         <v>2.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
       </c>
       <c r="AF25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
         <v>1</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-4-2008-09</t>
+          <t>2009-04-04</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E26" t="n">
         <v>48</v>
       </c>
       <c r="F26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G26" t="n">
-        <v>0.649</v>
+        <v>0.64</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J26" t="n">
-        <v>79.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.465</v>
+        <v>0.463</v>
       </c>
       <c r="L26" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O26" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="P26" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="R26" t="n">
         <v>13.1</v>
@@ -5097,7 +5164,7 @@
         <v>4.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z26" t="n">
         <v>20.6</v>
@@ -5106,19 +5173,19 @@
         <v>21.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG26" t="n">
         <v>7</v>
@@ -5127,7 +5194,7 @@
         <v>11</v>
       </c>
       <c r="AI26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ26" t="n">
         <v>22</v>
@@ -5145,7 +5212,7 @@
         <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="n">
         <v>17</v>
@@ -5163,10 +5230,10 @@
         <v>13</v>
       </c>
       <c r="AU26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW26" t="n">
         <v>25</v>
@@ -5178,7 +5245,7 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA26" t="n">
         <v>12</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-4-2008-09</t>
+          <t>2009-04-04</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5309,7 +5376,7 @@
         <v>3</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ27" t="n">
         <v>13</v>
@@ -5324,7 +5391,7 @@
         <v>11</v>
       </c>
       <c r="AN27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO27" t="n">
         <v>4</v>
@@ -5336,7 +5403,7 @@
         <v>6</v>
       </c>
       <c r="AR27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS27" t="n">
         <v>27</v>
@@ -5357,7 +5424,7 @@
         <v>27</v>
       </c>
       <c r="AY27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ27" t="n">
         <v>29</v>
@@ -5366,7 +5433,7 @@
         <v>11</v>
       </c>
       <c r="BB27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-4-2008-09</t>
+          <t>2009-04-04</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-4-2008-09</t>
+          <t>2009-04-04</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F29" t="n">
         <v>45</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4</v>
+        <v>0.392</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
@@ -5598,37 +5665,37 @@
         <v>36.9</v>
       </c>
       <c r="J29" t="n">
-        <v>80.59999999999999</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L29" t="n">
         <v>5.9</v>
       </c>
       <c r="M29" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N29" t="n">
         <v>0.376</v>
       </c>
       <c r="O29" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P29" t="n">
         <v>22.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.827</v>
+        <v>0.826</v>
       </c>
       <c r="R29" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S29" t="n">
         <v>30.8</v>
       </c>
       <c r="T29" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="U29" t="n">
         <v>22.1</v>
@@ -5637,7 +5704,7 @@
         <v>13.5</v>
       </c>
       <c r="W29" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X29" t="n">
         <v>4.7</v>
@@ -5652,19 +5719,19 @@
         <v>20.2</v>
       </c>
       <c r="AB29" t="n">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.7</v>
+        <v>-2.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AE29" t="n">
         <v>22</v>
       </c>
       <c r="AF29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG29" t="n">
         <v>22</v>
@@ -5673,13 +5740,13 @@
         <v>14</v>
       </c>
       <c r="AI29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ29" t="n">
         <v>16</v>
       </c>
       <c r="AK29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL29" t="n">
         <v>24</v>
@@ -5691,7 +5758,7 @@
         <v>9</v>
       </c>
       <c r="AO29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP29" t="n">
         <v>26</v>
@@ -5715,7 +5782,7 @@
         <v>10</v>
       </c>
       <c r="AW29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX29" t="n">
         <v>16</v>
@@ -5730,10 +5797,10 @@
         <v>22</v>
       </c>
       <c r="BB29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-4-2008-09</t>
+          <t>2009-04-04</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>3.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
         <v>10</v>
@@ -5852,7 +5919,7 @@
         <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI30" t="n">
         <v>6</v>
@@ -5885,7 +5952,7 @@
         <v>11</v>
       </c>
       <c r="AS30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT30" t="n">
         <v>18</v>
@@ -5903,7 +5970,7 @@
         <v>18</v>
       </c>
       <c r="AY30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ30" t="n">
         <v>23</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-4-2008-09</t>
+          <t>2009-04-04</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" t="n">
         <v>18</v>
       </c>
       <c r="F31" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G31" t="n">
-        <v>0.231</v>
+        <v>0.234</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
@@ -5962,10 +6029,10 @@
         <v>36.5</v>
       </c>
       <c r="J31" t="n">
-        <v>81.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L31" t="n">
         <v>4.8</v>
@@ -5974,19 +6041,19 @@
         <v>14.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.33</v>
+        <v>0.329</v>
       </c>
       <c r="O31" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P31" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.768</v>
+        <v>0.77</v>
       </c>
       <c r="R31" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S31" t="n">
         <v>28.2</v>
@@ -5995,7 +6062,7 @@
         <v>40</v>
       </c>
       <c r="U31" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V31" t="n">
         <v>13.8</v>
@@ -6007,19 +6074,19 @@
         <v>4.2</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z31" t="n">
         <v>20.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.6</v>
+        <v>-7.5</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -6028,7 +6095,7 @@
         <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
@@ -6037,13 +6104,13 @@
         <v>30</v>
       </c>
       <c r="AI31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
         <v>12</v>
       </c>
       <c r="AK31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6058,10 +6125,10 @@
         <v>25</v>
       </c>
       <c r="AP31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AR31" t="n">
         <v>8</v>
@@ -6082,10 +6149,10 @@
         <v>8</v>
       </c>
       <c r="AX31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ31" t="n">
         <v>13</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-4-2008-09</t>
+          <t>2009-04-04</t>
         </is>
       </c>
     </row>
